--- a/labor-timekeeper/exports/2025-12/2025-12-29/Sean_Matthew_2025-12-29.xlsx
+++ b/labor-timekeeper/exports/2025-12/2025-12-29/Sean_Matthew_2025-12-29.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -35,25 +35,31 @@
     <t>2026-01-01</t>
   </si>
   <si>
-    <t>PTO</t>
+    <t>Prezzano</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
   <si>
     <t>2026-01-02</t>
   </si>
   <si>
-    <t>Landers</t>
+    <t>Vincent</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
+    <t>OT</t>
+  </si>
+  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Reg: 24 / OT: 0</t>
+    <t>Reg: 40 / OT: 5</t>
   </si>
   <si>
     <t>Category: HOURLY</t>
@@ -80,7 +86,7 @@
     <t>Sean Matthew</t>
   </si>
   <si>
-    <t>emp_fn0y5dge</t>
+    <t>emp_emnnysju</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -537,136 +543,156 @@
         <v>7</v>
       </c>
       <c r="C2">
+        <v>22.5</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>17.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4180</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -693,10 +719,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -717,15 +743,15 @@
         <v>3</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -734,48 +760,77 @@
         <v>7</v>
       </c>
       <c r="E2">
+        <v>22.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1980</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>17.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1540</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1">
+        <v>660</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
